--- a/target/classes/excel/comment_template.xlsx
+++ b/target/classes/excel/comment_template.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC511369-5DCE-4851-B4C9-4A3A93B113B9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E917B8-D03A-45E4-9311-80A874F3E52C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,20 +19,60 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{6C43D175-85D9-4390-B011-6483F77700AA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:area(lastCell="A5")</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>comment here</t>
   </si>
   <si>
-    <t>Comment Demo</t>
+    <t>PRINT l2</t>
+  </si>
+  <si>
+    <t>PRINT l1</t>
+  </si>
+  <si>
+    <t>Start</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,6 +86,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -359,18 +412,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -378,8 +431,19 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/target/classes/excel/comment_template.xlsx
+++ b/target/classes/excel/comment_template.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E917B8-D03A-45E4-9311-80A874F3E52C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16CC253-807B-41B2-BA93-1A26D777432A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -416,7 +416,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/target/classes/excel/comment_template.xlsx
+++ b/target/classes/excel/comment_template.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16CC253-807B-41B2-BA93-1A26D777432A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A55811-1CC6-4D23-BC4E-30EE6A13B4DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1680" yWindow="3480" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,40 +17,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Author</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{6C43D175-85D9-4390-B011-6483F77700AA}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-jx:area(lastCell="A5")</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -72,7 +38,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,19 +52,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -412,11 +365,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,6 +397,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/target/classes/excel/comment_template.xlsx
+++ b/target/classes/excel/comment_template.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A55811-1CC6-4D23-BC4E-30EE6A13B4DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028B2493-10CD-48CC-B893-93EABD7BA9C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="3480" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2790" yWindow="3090" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>comment here</t>
   </si>
   <si>
-    <t>PRINT l2</t>
+    <t>Start</t>
   </si>
   <si>
-    <t>PRINT l1</t>
-  </si>
-  <si>
-    <t>Start</t>
+    <t>not here</t>
   </si>
 </sst>
 </file>
@@ -369,29 +366,29 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
